--- a/zad2/cykle.xlsx
+++ b/zad2/cykle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltmol\CLionProjects\optymalizacja kodu\zad2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltmol\CLionProjects\optymalizacja kodu\OKNRA\zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4829450-9817-48C5-B477-FFD7269E51E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514CC0F-8806-49BD-9DBB-3D354CF32029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,79 +316,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>87951</c:v>
+                  <c:v>178750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>543860</c:v>
+                  <c:v>1199627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1739802</c:v>
+                  <c:v>4009738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4058121</c:v>
+                  <c:v>9414012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7879003</c:v>
+                  <c:v>18244082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13533324</c:v>
+                  <c:v>31135283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21370314</c:v>
+                  <c:v>49259421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31830604</c:v>
+                  <c:v>73993617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45078796</c:v>
+                  <c:v>104110456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61386047</c:v>
+                  <c:v>142572963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81516084</c:v>
+                  <c:v>189893291</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105542876</c:v>
+                  <c:v>246202545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133971053</c:v>
+                  <c:v>312437107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>166549255</c:v>
+                  <c:v>389379849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>206319071</c:v>
+                  <c:v>481225044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>252837920</c:v>
+                  <c:v>584976046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>301097800</c:v>
+                  <c:v>702525638</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>358481827</c:v>
+                  <c:v>833832371</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>423006213</c:v>
+                  <c:v>984636814</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>489243642</c:v>
+                  <c:v>1152511810</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>571441300</c:v>
+                  <c:v>1327248617</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>657994531</c:v>
+                  <c:v>1519207178</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>751704883</c:v>
+                  <c:v>1736254516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>852068168</c:v>
+                  <c:v>1965544337</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>963358852</c:v>
+                  <c:v>2298002472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,7 +396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000000-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -597,7 +597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000001-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,7 +798,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000002-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,7 +999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000003-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,7 +1200,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000004-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1401,7 +1401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000005-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1604,7 +1604,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000006-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1807,7 +1807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C5CD-4DC4-872E-8DEC6EF460AD}"/>
+              <c16:uniqueId val="{00000007-84DA-431D-9400-DF4E9980DBAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,11 +1820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="745693312"/>
-        <c:axId val="745693792"/>
+        <c:axId val="435394352"/>
+        <c:axId val="435395792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="745693312"/>
+        <c:axId val="435394352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,13 +1851,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Rozmiar</a:t>
+                  <a:t>Rozmiar macierzy</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> macierzy</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1927,7 +1922,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745693792"/>
+        <c:crossAx val="435395792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="745693792"/>
+        <c:axId val="435395792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2036,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745693312"/>
+        <c:crossAx val="435394352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,22 +2677,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA15946-054E-004C-52E9-3BAD091F38D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116D960B-984D-CA12-C97C-8F6177A8862D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3001,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>87951</v>
+        <v>178750</v>
       </c>
       <c r="C2">
         <v>88068</v>
@@ -3074,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>543860</v>
+        <v>1199627</v>
       </c>
       <c r="C3">
         <v>537218</v>
@@ -3103,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="B4">
-        <v>1739802</v>
+        <v>4009738</v>
       </c>
       <c r="C4">
         <v>1740954</v>
@@ -3132,7 +3127,7 @@
         <v>160</v>
       </c>
       <c r="B5">
-        <v>4058121</v>
+        <v>9414012</v>
       </c>
       <c r="C5">
         <v>4207408</v>
@@ -3161,7 +3156,7 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>7879003</v>
+        <v>18244082</v>
       </c>
       <c r="C6">
         <v>7884905</v>
@@ -3190,7 +3185,7 @@
         <v>240</v>
       </c>
       <c r="B7">
-        <v>13533324</v>
+        <v>31135283</v>
       </c>
       <c r="C7">
         <v>13628487</v>
@@ -3219,7 +3214,7 @@
         <v>280</v>
       </c>
       <c r="B8">
-        <v>21370314</v>
+        <v>49259421</v>
       </c>
       <c r="C8">
         <v>21518394</v>
@@ -3248,7 +3243,7 @@
         <v>320</v>
       </c>
       <c r="B9">
-        <v>31830604</v>
+        <v>73993617</v>
       </c>
       <c r="C9">
         <v>32025978</v>
@@ -3277,7 +3272,7 @@
         <v>360</v>
       </c>
       <c r="B10">
-        <v>45078796</v>
+        <v>104110456</v>
       </c>
       <c r="C10">
         <v>46560890</v>
@@ -3306,7 +3301,7 @@
         <v>400</v>
       </c>
       <c r="B11">
-        <v>61386047</v>
+        <v>142572963</v>
       </c>
       <c r="C11">
         <v>67166255</v>
@@ -3335,7 +3330,7 @@
         <v>440</v>
       </c>
       <c r="B12">
-        <v>81516084</v>
+        <v>189893291</v>
       </c>
       <c r="C12">
         <v>82022650</v>
@@ -3364,7 +3359,7 @@
         <v>480</v>
       </c>
       <c r="B13">
-        <v>105542876</v>
+        <v>246202545</v>
       </c>
       <c r="C13">
         <v>107635742</v>
@@ -3393,7 +3388,7 @@
         <v>520</v>
       </c>
       <c r="B14">
-        <v>133971053</v>
+        <v>312437107</v>
       </c>
       <c r="C14">
         <v>135453550</v>
@@ -3422,7 +3417,7 @@
         <v>560</v>
       </c>
       <c r="B15">
-        <v>166549255</v>
+        <v>389379849</v>
       </c>
       <c r="C15">
         <v>167668481</v>
@@ -3451,7 +3446,7 @@
         <v>600</v>
       </c>
       <c r="B16">
-        <v>206319071</v>
+        <v>481225044</v>
       </c>
       <c r="C16">
         <v>213589283</v>
@@ -3480,7 +3475,7 @@
         <v>640</v>
       </c>
       <c r="B17">
-        <v>252837920</v>
+        <v>584976046</v>
       </c>
       <c r="C17">
         <v>253395765</v>
@@ -3509,7 +3504,7 @@
         <v>680</v>
       </c>
       <c r="B18">
-        <v>301097800</v>
+        <v>702525638</v>
       </c>
       <c r="C18">
         <v>301067270</v>
@@ -3538,7 +3533,7 @@
         <v>720</v>
       </c>
       <c r="B19">
-        <v>358481827</v>
+        <v>833832371</v>
       </c>
       <c r="C19">
         <v>361893597</v>
@@ -3567,7 +3562,7 @@
         <v>760</v>
       </c>
       <c r="B20">
-        <v>423006213</v>
+        <v>984636814</v>
       </c>
       <c r="C20">
         <v>423550217</v>
@@ -3596,7 +3591,7 @@
         <v>800</v>
       </c>
       <c r="B21">
-        <v>489243642</v>
+        <v>1152511810</v>
       </c>
       <c r="C21">
         <v>507776143</v>
@@ -3625,7 +3620,7 @@
         <v>840</v>
       </c>
       <c r="B22">
-        <v>571441300</v>
+        <v>1327248617</v>
       </c>
       <c r="C22">
         <v>582881742</v>
@@ -3654,7 +3649,7 @@
         <v>880</v>
       </c>
       <c r="B23">
-        <v>657994531</v>
+        <v>1519207178</v>
       </c>
       <c r="C23">
         <v>675006450</v>
@@ -3683,7 +3678,7 @@
         <v>920</v>
       </c>
       <c r="B24">
-        <v>751704883</v>
+        <v>1736254516</v>
       </c>
       <c r="C24">
         <v>748676190</v>
@@ -3712,7 +3707,7 @@
         <v>960</v>
       </c>
       <c r="B25">
-        <v>852068168</v>
+        <v>1965544337</v>
       </c>
       <c r="C25">
         <v>852884680</v>
@@ -3741,7 +3736,7 @@
         <v>1000</v>
       </c>
       <c r="B26">
-        <v>963358852</v>
+        <v>2298002472</v>
       </c>
       <c r="C26">
         <v>962546533</v>
